--- a/mt_results.xlsx
+++ b/mt_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDDEBFA-405E-A04F-B2A2-B08086A87A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316AD050-DE0A-F948-A5C9-F5FAB99F32EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20020" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>SF</t>
   </si>
@@ -107,13 +107,19 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Guild</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,15 +146,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +283,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63B8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F94CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF836FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF36648B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,14 +338,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,11 +371,31 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -364,16 +405,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF36648B"/>
+      <color rgb="FF836FFF"/>
+      <color rgb="FF4F94CD"/>
+      <color rgb="FF63B8FF"/>
       <color rgb="FFB15928"/>
       <color rgb="FFE0BE6D"/>
       <color rgb="FFDDD399"/>
       <color rgb="FF825D99"/>
       <color rgb="FF9471B4"/>
       <color rgb="FFCCAFCA"/>
-      <color rgb="FFED8F47"/>
-      <color rgb="FFFE901E"/>
-      <color rgb="FFFDB762"/>
-      <color rgb="FFF06C45"/>
     </mruColors>
   </colors>
   <extLst>
@@ -708,309 +749,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B2" s="4"/>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="6"/>
-      <c r="C3" s="27" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="31"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="7"/>
-      <c r="C4" s="27" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="31"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="29" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="F10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
-      <c r="C6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
-      <c r="C7" s="29" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="29"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="27"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="12"/>
-      <c r="C9" s="29" t="s">
+      <c r="G19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="27"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="F22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="13"/>
-      <c r="C10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="15"/>
-      <c r="C12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
-      <c r="C13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="30"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="21"/>
-      <c r="C18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="22"/>
-      <c r="C19" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="23"/>
-      <c r="C20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="24"/>
-      <c r="C21" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="25"/>
-      <c r="C22" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="26"/>
-      <c r="C23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>